--- a/Gr8_Dembi_Lacouture_Oumert/Materiel.xlsx
+++ b/Gr8_Dembi_Lacouture_Oumert/Materiel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leala\Documents\EI\2annee\Semestre4\Projet Systèmes embarqués IoT\Gestion de projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leala\Ruche\Gr8_Dembi_Lacouture_Oumert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A4417F-67DB-439C-9C35-2F0DEFF0311C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FA387-5E78-4265-8C11-5A152EACC4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{78204D26-3999-4A90-BAD0-28E481F7F77F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Composants</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Batterie Li-Po</t>
   </si>
   <si>
-    <t>Plaque Labdec</t>
-  </si>
-  <si>
     <t>Capteur de température</t>
   </si>
   <si>
@@ -105,6 +102,24 @@
   </si>
   <si>
     <t>SEN0562</t>
+  </si>
+  <si>
+    <t>x1 (+1 ?)</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>TPL5110</t>
+  </si>
+  <si>
+    <t>Labdec</t>
+  </si>
+  <si>
+    <t>Plaque à essai</t>
+  </si>
+  <si>
+    <t>x°°</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157DF48-2363-42D3-87D4-9DB5FD552274}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -525,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -537,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -549,75 +564,77 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -625,15 +642,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -655,6 +680,11 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
